--- a/linksPage_v.2.xlsx
+++ b/linksPage_v.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="linkTable" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="163">
   <si>
     <t>request</t>
   </si>
@@ -464,41 +464,97 @@
     <t>name dto</t>
   </si>
   <si>
-    <t>structure dto</t>
-  </si>
-  <si>
-    <t>{"login":"my@mail.com","password":"1234567"}</t>
-  </si>
-  <si>
     <t>POST /account/login BODY accountDto</t>
   </si>
   <si>
     <t>POST /account/login</t>
   </si>
   <si>
-    <t>{"login":"my@mail.com"}</t>
-  </si>
-  <si>
-    <t>{"login":"my@Email.com","password":"1234567","typeQuestion":"question1","question":"answerToQuestion","phone":1234567}</t>
-  </si>
-  <si>
     <t>{"login":"my@email.com","cvType":"backEnd"}</t>
   </si>
   <si>
-    <t>{"login":"my@Email.com","yearsInWork":1,"skillsType":["java"],"companyName":["myCompany1"],"cvType":"backEnd"}</t>
-  </si>
-  <si>
-    <t>{"login":"my@Email.com","email":true,"firstName":true,"lastName":true,"birthDate":true,"phone":true,"location":true,"photo":true,"aboutMyself":true,"linkedin":true,"educations":true,"languages":true,"coursesAndCertificates":true,"recomendations":true,"experiences":true,"projects":true}</t>
-  </si>
-  <si>
-    <t>{"login":"my@Email.com","downloadType":"doc","personData":{"firstName":"name","lastName":"surname","birthDate":"2017-12-06","phone":1234567,"location":"rehovot","photoUrl":"http://photoUrl"},"professionalData":{"aboutMySelf":"aboutMySelf","linkedinUrl":"http://linkedinUrl","educations":[{"nameUniversity":"university","nameSpeciality":"speciality","educationDegree":"master"}],"languages":[{"languageName":"english","languageLevel":"basic"}],"coursesAndCertificates":[{"nameOfCourse":"course","endDate":"2017-12-06"}],"recomendations":[{"firstName":"name","lastName":"surname","companyName":"company","position":"position","phone":1234567}],"experiences":[{"companyName":"company","position":"position","startDate":"2017-12-06","endDate":"2017-12-06","projects":[{"nameProject":"project","endDate":"2017-12-06","descriptionProject":"descriptionProject"}]}]},"fieldsVisibility":{"login":"my@Email.com","email":true,"firstName":true,"lastName":true,"birthDate":true,"phone":true,"location":true,"photo":true,"aboutMyself":true,"linkedin":true,"educations":true,"languages":true,"coursesAndCertificates":true,"recomendations":true,"experiences":true,"projects":true}}</t>
+    <t>structure response</t>
+  </si>
+  <si>
+    <t>structure request</t>
+  </si>
+  <si>
+    <t>ok / false</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","yearsInWork":1,"skillsType":["java"],"companyName":["myCompany1"],"cvType":"backEnd"}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","password":"1234567","typeQuestion":"question1","question":"answerToQuestion","phone":1234567}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","email":true,"firstName":true,"lastName":true,"birthDate":true,"phone":true,"location":true,"photo":true,"aboutMyself":true,"linkedin":true,"educations":true,"languages":true,"coursesAndCertificates":true,"recomendations":true,"experiences":true,"projects":true}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","downloadType":"doc","personData":{"firstName":"name","lastName":"surname","birthDate":"2017-12-06","phone":1234567,"location":"rehovot","photoUrl":"http://photoUrl"},"professionalData":{"aboutMySelf":"aboutMySelf","linkedinUrl":"http://linkedinUrl","educations":[{"nameUniversity":"university","nameSpeciality":"speciality","educationDegree":"master"}],"languages":[{"languageName":"english","languageLevel":"basic"}],"coursesAndCertificates":[{"nameOfCourse":"course","endDate":"2017-12-06"}],"recomendations":[{"firstName":"name","lastName":"surname","companyName":"company","position":"position","phone":1234567}],"experiences":[{"companyName":"company","position":"position","startDate":"2017-12-06","endDate":"2017-12-06","projects":[{"nameProject":"project","endDate":"2017-12-06","descriptionProject":"descriptionProject"}]}]},"fieldsVisibility":{"login":"my@Email.com","email":true,"firstName":true,"lastName":true,"birthDate":true,"phone":true,"location":true,"photo":true,"aboutMyself":true,"linkedin":true,"educations":true,"languages":true,"coursesAndCertificates":true,"recomendations":true,"experiences":true,"projects":true}}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com"}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","password":"1234567"}</t>
+  </si>
+  <si>
+    <t>{"login":"my@email.com","yearsInWork":1,"skillsType":["java"],"companyName":["myCompany1"],"verification":{"date":"2017-12-06","verificationStatus":"yes"},"cvType":"backEnd","dateOfEnable":"2017-12-06","enable":true}</t>
+  </si>
+  <si>
+    <t>{"login":"my@Email.com","downloadType":"doc","curriculumVitae":[{"yearsInWork":1,"skillsType":["java"],"companyName":["myCompany1"],"verification":{"date":"2017-12-06","verificationStatus":"yes"},"cvType":"backEnd","dateOfEnable":"2017-12-06","enable":true}],"personData":{"firstName":"name","lastName":"surname","birthDate":"2017-12-07","phone":1234567,"location":"rehovot","photoUrl":"http://photoUrl"},"professionalData":{"aboutMySelf":"aboutMySelf","linkedinUrl":"http://linkedinUrl","educations":[{"nameUniversity":"university","nameSpeciality":"speciality","educationDegree":"master"}],"languages":[{"languageName":"english","languageLevel":"basic"}],"coursesAndCertificates":[{"nameOfCourse":"course","endDate":"2017-12-06"}],"recomendations":[{"firstName":"name","lastName":"surname","companyName":"company","position":"position","phone":1234567}],"experiences":[{"companyName":"company","position":"position","startDate":"2017-12-06","endDate":"2017-12-06","projects":[{"nameProject":"project","endDate":"2017-12-06","descriptionProject":"descriptionProject"}]}]},
+"fieldsVisibility":{"login":"my@Email.com","email":true,"firstName":true,"lastName":true,"birthDate":true,"phone":true,"location":true,"photo":true,"aboutMyself":true,"linkedin":true,"educations":true,"languages":true,"coursesAndCertificates":true,"recomendations":true,"experiences":true,"projects":true}}</t>
+  </si>
+  <si>
+    <r>
+      <t>"notActivated" / "wrongCredentials" /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "noSendEmail" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ "false"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"JOB_SEEKER" / "COMPANY" / "notActivated" / "wrongCredentials" / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"remove"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,6 +601,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -581,7 +653,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -793,8 +865,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -835,57 +917,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -893,13 +930,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,35 +939,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="221">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
@@ -1042,6 +1152,11 @@
     <cellStyle name="Гиперссылка" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
@@ -1148,6 +1263,11 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="220" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1497,7 +1617,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1527,109 +1647,109 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1650,41 +1770,41 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1695,240 +1815,240 @@
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="29" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="29" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="41" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1939,9 +2059,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1950,48 +2070,48 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
-      <c r="A38" s="14"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="41" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2002,9 +2122,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
@@ -2013,13 +2133,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2030,9 +2150,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
@@ -2041,228 +2161,228 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="32" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="29" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29" t="s">
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29" t="s">
+      <c r="A57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="29" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1">
-      <c r="A59" s="27"/>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="40"/>
+      <c r="B59" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="29" t="s">
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="41" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2273,9 +2393,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2284,174 +2404,174 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1">
-      <c r="A64" s="14"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="41" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1">
-      <c r="A66" s="14"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" customHeight="1">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1">
-      <c r="A69" s="27"/>
-      <c r="B69" s="29" t="s">
+      <c r="A69" s="40"/>
+      <c r="B69" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="29" t="s">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" customHeight="1">
-      <c r="A70" s="27"/>
-      <c r="B70" s="29" t="s">
+      <c r="A70" s="40"/>
+      <c r="B70" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="29" t="s">
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1">
-      <c r="A72" s="14"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" customHeight="1">
-      <c r="A74" s="35"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="29" t="s">
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1">
-      <c r="A75" s="35"/>
-      <c r="B75" s="29" t="s">
+      <c r="A75" s="46"/>
+      <c r="B75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="29" t="s">
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2491,6 +2611,12 @@
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="A65:A66"/>
@@ -2498,20 +2624,14 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:E71"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="A9:A10"/>
@@ -2527,6 +2647,8 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A6"/>
@@ -2534,8 +2656,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
@@ -2616,13 +2736,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="53" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2633,9 +2753,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2644,9 +2764,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2655,9 +2775,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2666,31 +2786,31 @@
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -2698,28 +2818,28 @@
         <v>102</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" hidden="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2740,13 +2860,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="53" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2757,9 +2877,9 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
@@ -2768,9 +2888,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
@@ -2785,62 +2905,62 @@
       <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5" hidden="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2857,88 +2977,88 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="53" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -2949,9 +3069,9 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
@@ -2960,11 +3080,11 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="53" t="s">
         <v>118</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -2975,9 +3095,9 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="10" t="s">
         <v>7</v>
       </c>
@@ -2986,11 +3106,11 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -3001,9 +3121,9 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="10" t="s">
         <v>7</v>
       </c>
@@ -3012,13 +3132,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="47" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3029,9 +3149,9 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
@@ -3040,48 +3160,48 @@
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" hidden="1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="47" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3092,9 +3212,9 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="8" t="s">
         <v>7</v>
       </c>
@@ -3103,13 +3223,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="47" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3120,9 +3240,9 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="8" t="s">
         <v>7</v>
       </c>
@@ -3131,24 +3251,24 @@
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1">
-      <c r="A43" s="18"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
       <c r="E43" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="53" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -3159,9 +3279,9 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="10" t="s">
         <v>7</v>
       </c>
@@ -3170,53 +3290,53 @@
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" hidden="1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3233,11 +3353,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="54" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -3248,9 +3368,9 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="12" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3379,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3276,33 +3396,33 @@
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
       <c r="E55" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="53" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -3313,9 +3433,9 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="10" t="s">
         <v>7</v>
       </c>
@@ -3324,35 +3444,35 @@
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="47" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -3363,9 +3483,9 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="8" t="s">
         <v>7</v>
       </c>
@@ -3374,72 +3494,72 @@
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1">
-      <c r="A62" s="18"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
     </row>
     <row r="64" spans="1:5" hidden="1">
-      <c r="A64" s="18"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
       <c r="E64" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
     </row>
     <row r="66" spans="1:5" hidden="1">
-      <c r="A66" s="18"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="53" t="s">
         <v>114</v>
       </c>
       <c r="D67" s="10" t="s">
@@ -3450,9 +3570,9 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="10" t="s">
         <v>7</v>
       </c>
@@ -3461,53 +3581,53 @@
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5" hidden="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" customHeight="1">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
     </row>
     <row r="72" spans="1:5" hidden="1">
-      <c r="A72" s="18"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="49" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -3524,23 +3644,23 @@
       </c>
     </row>
     <row r="74" spans="1:5" hidden="1">
-      <c r="A74" s="20"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
       <c r="E75" s="10" t="s">
         <v>74</v>
       </c>
@@ -3652,197 +3772,251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="55.83203125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="C1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="40" t="s">
+    </row>
+    <row r="2" spans="1:4" s="34" customFormat="1" ht="30">
+      <c r="A2" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
+      <c r="C2" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="34" customFormat="1">
+      <c r="A4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="375" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="34" customFormat="1">
+      <c r="A6" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="39" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="34" customFormat="1">
+      <c r="A8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="34" customFormat="1">
+      <c r="A10" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="34" customFormat="1">
+      <c r="A12" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="44" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="34" customFormat="1">
+      <c r="A14" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="37" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="44"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="75">
-      <c r="A17" s="39" t="s">
+      <c r="D16" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75">
+      <c r="A17" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="300">
-      <c r="A18" s="39" t="s">
+      <c r="D17" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="34" customFormat="1" ht="300">
+      <c r="A18" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="39" t="s">
+      <c r="D18" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" s="34" customFormat="1">
+      <c r="A20" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="46"/>
-    </row>
+      <c r="C20" s="37"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="37" ht="376" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B10"/>
